--- a/work/Dallmann2018Table5.xlsx
+++ b/work/Dallmann2018Table5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\httk\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A03F03E-92BD-4F6D-8D21-36CCC545BFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4231AC38-835A-4D42-8DD1-7C01CD082599}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1065" windowWidth="26610" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dallmann2018Table5" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,71 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={612282B7-0400-4E4F-A1EB-24AD499E58F0}</author>
+    <author>tc={E1FE5AE4-890F-4F94-8798-201838242327}</author>
+    <author>tc={E1F97BAB-3AC9-4654-9038-100158AE277D}</author>
+    <author>tc={C492FBE6-58B1-4C2E-BCEF-C7DBE4925D35}</author>
+    <author>tc={5DE434C0-FBEF-46A3-B78F-223DC58268E4}</author>
+    <author>tc={93EDDDE1-17A0-4B9B-B047-96EE4C241C11}</author>
+  </authors>
+  <commentList>
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{612282B7-0400-4E4F-A1EB-24AD499E58F0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Blood sampled for 6 days after last dose administration; AUC was only calculated only for the first 24 h after last dose administration</t>
+      </text>
+    </comment>
+    <comment ref="M20" authorId="1" shapeId="0" xr:uid="{E1FE5AE4-890F-4F94-8798-201838242327}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Blood sampled for 6 days after last dose administration; AUC was only calculated only for the first 24 h after last dose administration</t>
+      </text>
+    </comment>
+    <comment ref="K22" authorId="2" shapeId="0" xr:uid="{E1F97BAB-3AC9-4654-9038-100158AE277D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Blood sampled for 6 days after last dose administration; AUC was only calculated only for the first 24 h after last dose administration</t>
+      </text>
+    </comment>
+    <comment ref="M22" authorId="3" shapeId="0" xr:uid="{C492FBE6-58B1-4C2E-BCEF-C7DBE4925D35}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Blood sampled for 6 days after last dose administration; AUC was only calculated only for the first 24 h after last dose administration</t>
+      </text>
+    </comment>
+    <comment ref="R30" authorId="4" shapeId="0" xr:uid="{5DE434C0-FBEF-46A3-B78F-223DC58268E4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    2 of 7 patients had extremely low plasma concentrations and they may have skipped drug intake (although this was not documented in the clinical study protocol). Excluding those 2 patients as outliers resulted in a observed geometric mean value of 8.23 mg h/L for AUClast,ss</t>
+      </text>
+    </comment>
+    <comment ref="R31" authorId="5" shapeId="0" xr:uid="{93EDDDE1-17A0-4B9B-B047-96EE4C241C11}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    2 of 7 patients had extremely low plasma concentrations and they may have skipped drug intake (although this was not documented in the clinical study protocol). Excluding those 2 patients as outliers resulted in a observed geometric mean value of 1.31 mg/L for Cmax</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="156">
   <si>
     <t>Drug</t>
   </si>
@@ -219,16 +282,296 @@
   </si>
   <si>
     <t>iv</t>
+  </si>
+  <si>
+    <t>Source observed data non-pregnant</t>
+  </si>
+  <si>
+    <t>Source observed data pregnant</t>
+  </si>
+  <si>
+    <t>Ceftazidime</t>
+  </si>
+  <si>
+    <t>72558-82-8</t>
+  </si>
+  <si>
+    <t>PMID: 30113711</t>
+  </si>
+  <si>
+    <t>PMID: 19802997</t>
+  </si>
+  <si>
+    <t>Cefazolin</t>
+  </si>
+  <si>
+    <t>25953-19-9</t>
+  </si>
+  <si>
+    <t>Cefuroxime</t>
+  </si>
+  <si>
+    <t>Cefradine</t>
+  </si>
+  <si>
+    <t>55268-75-2</t>
+  </si>
+  <si>
+    <t>38821-53-3</t>
+  </si>
+  <si>
+    <t>PMID: 28391404</t>
+  </si>
+  <si>
+    <t>Sertraline</t>
+  </si>
+  <si>
+    <t>PMID: 9068932</t>
+  </si>
+  <si>
+    <t>PMID: 19011433</t>
+  </si>
+  <si>
+    <t>79617-96-2</t>
+  </si>
+  <si>
+    <t>Acyclovir</t>
+  </si>
+  <si>
+    <t>59277-89-3</t>
+  </si>
+  <si>
+    <t>Emtricitabine</t>
+  </si>
+  <si>
+    <t>143491-57-0</t>
+  </si>
+  <si>
+    <t>PMID: 31489678</t>
+  </si>
+  <si>
+    <t>Raltegravir</t>
+  </si>
+  <si>
+    <t>PMID: 32451908</t>
+  </si>
+  <si>
+    <t>518048-05-0</t>
+  </si>
+  <si>
+    <t>Dolutegravir</t>
+  </si>
+  <si>
+    <t>1051375-16-6</t>
+  </si>
+  <si>
+    <t>Dosing frequency</t>
+  </si>
+  <si>
+    <t>Single dose</t>
+  </si>
+  <si>
+    <t>Once daily</t>
+  </si>
+  <si>
+    <t>Twice daily</t>
+  </si>
+  <si>
+    <t>103-90-2</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>PMID: 31347013</t>
+  </si>
+  <si>
+    <t>PMID: 26715213</t>
+  </si>
+  <si>
+    <t>Efavirenz</t>
+  </si>
+  <si>
+    <t>154598-52-4</t>
+  </si>
+  <si>
+    <t>PMID: 30124823</t>
+  </si>
+  <si>
+    <t>Tenofovir</t>
+  </si>
+  <si>
+    <t>PMID: 26011128</t>
+  </si>
+  <si>
+    <t>147127-20-6</t>
+  </si>
+  <si>
+    <t>PMID: 17519400</t>
+  </si>
+  <si>
+    <t>Nevirapine</t>
+  </si>
+  <si>
+    <t>129618-40-2</t>
+  </si>
+  <si>
+    <t>PMID: 20956588</t>
+  </si>
+  <si>
+    <t>PMID: 25064169</t>
+  </si>
+  <si>
+    <t>Clindamycin</t>
+  </si>
+  <si>
+    <t>18323-44-9</t>
+  </si>
+  <si>
+    <t>PMID: 20176904</t>
+  </si>
+  <si>
+    <t>PMID: 8517703</t>
+  </si>
+  <si>
+    <t>Azithromycin</t>
+  </si>
+  <si>
+    <t>83905-01-5</t>
+  </si>
+  <si>
+    <t>PMID: 25595580</t>
+  </si>
+  <si>
+    <t>PMID: 19858250</t>
+  </si>
+  <si>
+    <t>PMID: 1656743</t>
+  </si>
+  <si>
+    <t>Cefatrizine</t>
+  </si>
+  <si>
+    <t>PMID: 17135753</t>
+  </si>
+  <si>
+    <t>51627-14-6</t>
+  </si>
+  <si>
+    <t>Digoxin</t>
+  </si>
+  <si>
+    <t>20830-75-5</t>
+  </si>
+  <si>
+    <t>ug/L h</t>
+  </si>
+  <si>
+    <t>ug/L</t>
+  </si>
+  <si>
+    <t>PMID: 18288078</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>PMID: 6149030</t>
+  </si>
+  <si>
+    <t>846-49-1</t>
+  </si>
+  <si>
+    <t>PMID: 16143486</t>
+  </si>
+  <si>
+    <t>Amoxicillin</t>
+  </si>
+  <si>
+    <t>26787-78-0</t>
+  </si>
+  <si>
+    <t>PMID: 32748112</t>
+  </si>
+  <si>
+    <t>Sotalol</t>
+  </si>
+  <si>
+    <t>3930-20-9</t>
+  </si>
+  <si>
+    <t>PMID: 6861867</t>
+  </si>
+  <si>
+    <t>DTXSID5022770</t>
+  </si>
+  <si>
+    <t>DTXSID2022753</t>
+  </si>
+  <si>
+    <t>DTXSID5022774</t>
+  </si>
+  <si>
+    <t>DTXSID4022785</t>
+  </si>
+  <si>
+    <t>DTXSID6023577</t>
+  </si>
+  <si>
+    <t>DTXSID1022556</t>
+  </si>
+  <si>
+    <t>DTXSID0040129</t>
+  </si>
+  <si>
+    <t>DTXSID2048660</t>
+  </si>
+  <si>
+    <t>DTXSID90909356</t>
+  </si>
+  <si>
+    <t>DTXSID2020006</t>
+  </si>
+  <si>
+    <t>DTXSID9046029</t>
+  </si>
+  <si>
+    <t>DTXSID9040132</t>
+  </si>
+  <si>
+    <t>DTXSID7031797</t>
+  </si>
+  <si>
+    <t>DTXSID2022836</t>
+  </si>
+  <si>
+    <t>DTXSID8030760</t>
+  </si>
+  <si>
+    <t>DTXSID7022752</t>
+  </si>
+  <si>
+    <t>DTXSID5022934</t>
+  </si>
+  <si>
+    <t>DTXSID7023225</t>
+  </si>
+  <si>
+    <t>DTXSID3037044</t>
+  </si>
+  <si>
+    <t>DTXSID0023589</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +726,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="33">
@@ -726,7 +1074,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -757,6 +1105,21 @@
       <alignment textRotation="90"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -802,40 +1165,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -864,10 +1194,52 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -913,51 +1285,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Andre Dallmann" id="{5E39B679-612A-4371-B5E5-D48A4471876F}" userId="S::andre.dallmann@bayer.com::5c23077c-d33a-43b1-8da1-43baabc21ac0" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AA12" totalsRowShown="0">
-  <autoFilter ref="A1:AA12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AD61" totalsRowShown="0">
+  <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Drug"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DTXSID" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PREFERRED_NAME" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CASRN" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{37FDDEAD-13CA-445B-B472-5897017334B2}" name="AVERAGE_MASS" dataDxfId="21"/>
-    <tableColumn id="31" xr3:uid="{454D779A-C62F-4338-BCC0-3733EA365955}" name="Dose" dataDxfId="9"/>
-    <tableColumn id="32" xr3:uid="{6A0AFA4B-F33C-4193-B358-F7FD4E357445}" name="Dose Units" dataDxfId="8"/>
-    <tableColumn id="33" xr3:uid="{EEA1A6BC-5094-4AA4-9CE4-5958599AF52D}" name="Dose Route" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{B888EBE7-0E1A-4DAB-AF9B-40574273D011}" name="Gestational.Age.Weeks" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{61A39509-D8E8-4E89-A21C-D105DEE3086B}" name="NonPreg.Duration.Days" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{BE038C40-7E49-4B49-BEC3-47110CF63421}" name="Preg.Duration.Days" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{20D2778A-D1FA-4952-8A06-0131057DEB19}" name="Parameter" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DTXSID" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PREFERRED_NAME" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CASRN" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{37FDDEAD-13CA-445B-B472-5897017334B2}" name="AVERAGE_MASS" dataDxfId="24"/>
+    <tableColumn id="31" xr3:uid="{454D779A-C62F-4338-BCC0-3733EA365955}" name="Dose" dataDxfId="23"/>
+    <tableColumn id="32" xr3:uid="{6A0AFA4B-F33C-4193-B358-F7FD4E357445}" name="Dose Units" dataDxfId="22"/>
+    <tableColumn id="29" xr3:uid="{6A33C84C-F1DF-493D-BBC5-484C4BE4321D}" name="Dosing frequency" dataDxfId="21"/>
+    <tableColumn id="33" xr3:uid="{EEA1A6BC-5094-4AA4-9CE4-5958599AF52D}" name="Dose Route" dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{B888EBE7-0E1A-4DAB-AF9B-40574273D011}" name="Gestational.Age.Weeks" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{61A39509-D8E8-4E89-A21C-D105DEE3086B}" name="NonPreg.Duration.Days" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{BE038C40-7E49-4B49-BEC3-47110CF63421}" name="Preg.Duration.Days" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{20D2778A-D1FA-4952-8A06-0131057DEB19}" name="Parameter" dataDxfId="16"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Units"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Observed Non-Pregnant" dataDxfId="20"/>
-    <tableColumn id="21" xr3:uid="{53744B63-4323-4602-8A4F-E56B2164905B}" name="Predicted Non-Pregnant" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Ratio Non-Pregnant" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observed Pregnant" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Predicted Pregnant" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ratio Pregnant" dataDxfId="7"/>
-    <tableColumn id="30" xr3:uid="{4112F57B-1456-4C3F-ABAB-77A00841C3E8}" name="Mass Conversion" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Observed Non-Pregnant" dataDxfId="15"/>
+    <tableColumn id="21" xr3:uid="{53744B63-4323-4602-8A4F-E56B2164905B}" name="Predicted Non-Pregnant" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Ratio Non-Pregnant" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observed Pregnant" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Predicted Pregnant" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ratio Pregnant" dataDxfId="10"/>
+    <tableColumn id="30" xr3:uid="{4112F57B-1456-4C3F-ABAB-77A00841C3E8}" name="Mass Conversion" dataDxfId="9">
       <calculatedColumnFormula>1/1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{3ED96EF2-FBAD-481E-9B8F-E2997260F90F}" name="Converted Units" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{B955051F-00D2-4741-8752-29F88CE24766}" name="Observed Non-Pregnant2" dataDxfId="10">
+    <tableColumn id="22" xr3:uid="{3ED96EF2-FBAD-481E-9B8F-E2997260F90F}" name="Converted Units" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{B955051F-00D2-4741-8752-29F88CE24766}" name="Observed Non-Pregnant2" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{62376B32-5A3D-4035-8C71-E3433BC4E0F4}" name="Predicted Non-Pregnant3" dataDxfId="14">
+    <tableColumn id="24" xr3:uid="{62376B32-5A3D-4035-8C71-E3433BC4E0F4}" name="Predicted Non-Pregnant3" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[Predicted Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{6A386F25-010C-435D-AEFE-18AC4AFBD926}" name="Ratio Non-Pregnant4" dataDxfId="15">
+    <tableColumn id="25" xr3:uid="{6A386F25-010C-435D-AEFE-18AC4AFBD926}" name="Ratio Non-Pregnant4" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[Predicted Non-Pregnant3]]/Table1[[#This Row],[Observed Non-Pregnant2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{A0EC3CDA-651E-4DB9-A64D-720A23B7C86F}" name="Observed Pregnant5" dataDxfId="13">
+    <tableColumn id="26" xr3:uid="{A0EC3CDA-651E-4DB9-A64D-720A23B7C86F}" name="Observed Pregnant5" dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{A32B02F1-E4AF-4617-8571-AEFBD7CA11C3}" name="Predicted Pregnant6" dataDxfId="12">
+    <tableColumn id="27" xr3:uid="{A32B02F1-E4AF-4617-8571-AEFBD7CA11C3}" name="Predicted Pregnant6" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[Predicted Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{BE7B95FA-485F-490A-9B51-E8BABB9A68C4}" name="Ratio Pregnant7" dataDxfId="11">
+    <tableColumn id="28" xr3:uid="{BE7B95FA-485F-490A-9B51-E8BABB9A68C4}" name="Ratio Pregnant7" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Predicted Pregnant6]]/Table1[[#This Row],[Observed Pregnant5]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="11" xr3:uid="{FAEFA3F6-D37E-47C0-BC6E-822F55E1156E}" name="Source observed data non-pregnant" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{508DE6B2-CFBC-4DDC-9F4B-F1848522CA40}" name="Source observed data pregnant" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1258,41 +1638,70 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K20" dT="2021-06-24T09:38:11.69" personId="{5E39B679-612A-4371-B5E5-D48A4471876F}" id="{612282B7-0400-4E4F-A1EB-24AD499E58F0}">
+    <text>Blood sampled for 6 days after last dose administration; AUC was only calculated only for the first 24 h after last dose administration</text>
+  </threadedComment>
+  <threadedComment ref="M20" dT="2021-06-24T15:20:01.99" personId="{5E39B679-612A-4371-B5E5-D48A4471876F}" id="{E1FE5AE4-890F-4F94-8798-201838242327}">
+    <text>Blood sampled for 6 days after last dose administration; AUC was only calculated only for the first 24 h after last dose administration</text>
+  </threadedComment>
+  <threadedComment ref="K22" dT="2021-06-24T09:38:11.69" personId="{5E39B679-612A-4371-B5E5-D48A4471876F}" id="{E1F97BAB-3AC9-4654-9038-100158AE277D}">
+    <text>Blood sampled for 6 days after last dose administration; AUC was only calculated only for the first 24 h after last dose administration</text>
+  </threadedComment>
+  <threadedComment ref="M22" dT="2021-06-24T15:20:08.58" personId="{5E39B679-612A-4371-B5E5-D48A4471876F}" id="{C492FBE6-58B1-4C2E-BCEF-C7DBE4925D35}">
+    <text>Blood sampled for 6 days after last dose administration; AUC was only calculated only for the first 24 h after last dose administration</text>
+  </threadedComment>
+  <threadedComment ref="R30" dT="2021-06-24T10:11:24.43" personId="{5E39B679-612A-4371-B5E5-D48A4471876F}" id="{5DE434C0-FBEF-46A3-B78F-223DC58268E4}">
+    <text>2 of 7 patients had extremely low plasma concentrations and they may have skipped drug intake (although this was not documented in the clinical study protocol). Excluding those 2 patients as outliers resulted in a observed geometric mean value of 8.23 mg h/L for AUClast,ss</text>
+  </threadedComment>
+  <threadedComment ref="R31" dT="2021-06-24T10:11:54.01" personId="{5E39B679-612A-4371-B5E5-D48A4471876F}" id="{93EDDDE1-17A0-4B9B-B047-96EE4C241C11}">
+    <text>2 of 7 patients had extremely low plasma concentrations and they may have skipped drug intake (although this was not documented in the clinical study protocol). Excluding those 2 patients as outliers resulted in a observed geometric mean value of 1.31 mg/L for Cmax</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="125.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="174.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1315,67 +1724,76 @@
         <v>58</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="AC1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1398,73 +1816,78 @@
         <v>59</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="1">
         <v>36</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>0.5</v>
       </c>
-      <c r="K2" s="8">
+      <c r="L2" s="8">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="8">
+      <c r="O2" s="8">
         <v>24.5</v>
       </c>
-      <c r="O2" s="8">
+      <c r="P2" s="8">
         <v>28.2</v>
       </c>
-      <c r="P2" s="8">
+      <c r="Q2" s="8">
         <v>1.1499999999999999</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="R2" s="8">
         <v>71</v>
       </c>
-      <c r="R2" s="8">
+      <c r="S2" s="8">
         <v>60.7</v>
       </c>
-      <c r="S2" s="8">
+      <c r="T2" s="8">
         <v>0.85</v>
       </c>
-      <c r="T2" s="11">
+      <c r="U2" s="11">
         <v>1E-3</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="8">
+      <c r="W2" s="8">
         <f>Table1[[#This Row],[Observed Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>126.16249729651793</v>
       </c>
-      <c r="W2" s="8">
+      <c r="X2" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>145.2156091331349</v>
       </c>
-      <c r="X2" s="8">
+      <c r="Y2" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant3]]/Table1[[#This Row],[Observed Non-Pregnant2]]</f>
         <v>1.1510204081632651</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Z2" s="8">
         <f>Table1[[#This Row],[Observed Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>365.61376767562342</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="AA2" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>312.57402391423011</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AB2" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant6]]/Table1[[#This Row],[Observed Pregnant5]]</f>
         <v>0.85492957746478859</v>
       </c>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1487,73 +1910,78 @@
         <v>59</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="1">
         <v>36</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>0.5</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L3" s="8">
         <v>1</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="8">
+      <c r="O3" s="8">
         <v>4.63</v>
       </c>
-      <c r="O3" s="8">
+      <c r="P3" s="8">
         <v>3.94</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="8">
         <v>0.85</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="R3" s="8">
         <v>4.08</v>
       </c>
-      <c r="R3" s="8">
+      <c r="S3" s="8">
         <v>3.6</v>
       </c>
-      <c r="S3" s="8">
+      <c r="T3" s="8">
         <v>0.88</v>
       </c>
-      <c r="T3" s="11">
+      <c r="U3" s="11">
         <v>1E-3</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="8">
+      <c r="W3" s="8">
         <f>Table1[[#This Row],[Observed Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>23.842137244199098</v>
       </c>
-      <c r="W3" s="8">
+      <c r="X3" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>20.288989361154311</v>
       </c>
-      <c r="X3" s="8">
+      <c r="Y3" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant3]]/Table1[[#This Row],[Observed Non-Pregnant2]]</f>
         <v>0.85097192224622042</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Z3" s="8">
         <f>Table1[[#This Row],[Observed Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>21.009917917134413</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="AA3" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>18.538162868059779</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AB3" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant6]]/Table1[[#This Row],[Observed Pregnant5]]</f>
         <v>0.88235294117647067</v>
       </c>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1576,73 +2004,78 @@
         <v>59</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="13">
         <v>30</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0.25</v>
       </c>
       <c r="K4" s="9">
         <v>0.25</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="8">
+      <c r="O4" s="8">
         <v>17.899999999999999</v>
       </c>
-      <c r="O4" s="8">
+      <c r="P4" s="8">
         <v>17.100000000000001</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="8">
         <v>0.95</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="8">
         <v>9.5</v>
       </c>
-      <c r="R4" s="8">
+      <c r="S4" s="8">
         <v>7.88</v>
       </c>
-      <c r="S4" s="8">
+      <c r="T4" s="8">
         <v>0.83</v>
       </c>
-      <c r="T4" s="11">
+      <c r="U4" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="8">
+      <c r="W4" s="8">
         <f>Table1[[#This Row],[Observed Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>5.4946741566135618E-2</v>
       </c>
-      <c r="W4" s="8">
+      <c r="X4" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>5.2491021272677053E-2</v>
       </c>
-      <c r="X4" s="8">
+      <c r="Y4" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant3]]/Table1[[#This Row],[Observed Non-Pregnant2]]</f>
         <v>0.95530726256983256</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Z4" s="8">
         <f>Table1[[#This Row],[Observed Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>2.9161678484820576E-2</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="AA4" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>2.4188844890566961E-2</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AB4" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant6]]/Table1[[#This Row],[Observed Pregnant5]]</f>
         <v>0.82947368421052625</v>
       </c>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1665,73 +2098,78 @@
         <v>59</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="13">
         <v>30</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0.25</v>
       </c>
       <c r="K5" s="9">
         <v>0.25</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="8">
+      <c r="O5" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="O5" s="8">
+      <c r="P5" s="8">
         <v>7.71</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="8">
         <v>0.83</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="R5" s="8">
         <v>6.4</v>
       </c>
-      <c r="R5" s="8">
+      <c r="S5" s="8">
         <v>4.12</v>
       </c>
-      <c r="S5" s="8">
+      <c r="T5" s="8">
         <v>0.64</v>
       </c>
-      <c r="T5" s="11">
+      <c r="U5" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="V5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="8">
+      <c r="W5" s="8">
         <f>Table1[[#This Row],[Observed Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>2.854774841145594E-2</v>
       </c>
-      <c r="W5" s="8">
+      <c r="X5" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>2.3667004328207016E-2</v>
       </c>
-      <c r="X5" s="8">
+      <c r="Y5" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant3]]/Table1[[#This Row],[Observed Non-Pregnant2]]</f>
         <v>0.82903225806451597</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Z5" s="8">
         <f>Table1[[#This Row],[Observed Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>1.9645762347668599E-2</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="AA5" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>1.2646959511311661E-2</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AB5" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant6]]/Table1[[#This Row],[Observed Pregnant5]]</f>
         <v>0.64375000000000004</v>
       </c>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1754,73 +2192,78 @@
         <v>59</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="13">
         <v>32</v>
       </c>
-      <c r="J6" s="9">
+      <c r="K6" s="9">
         <v>1</v>
       </c>
-      <c r="K6" s="9">
+      <c r="L6" s="9">
         <v>0.33333333333333298</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
         <v>326</v>
       </c>
-      <c r="O6" s="8">
+      <c r="P6" s="8">
         <v>373</v>
       </c>
-      <c r="P6" s="8">
+      <c r="Q6" s="8">
         <v>1.1399999999999999</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="R6" s="8">
         <v>272</v>
       </c>
-      <c r="R6" s="8">
+      <c r="S6" s="8">
         <v>231</v>
       </c>
-      <c r="S6" s="8">
+      <c r="T6" s="8">
         <v>0.85</v>
       </c>
-      <c r="T6" s="11">
+      <c r="U6" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="V6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="8">
+      <c r="W6" s="8">
         <f>Table1[[#This Row],[Observed Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.94127430061298323</v>
       </c>
-      <c r="W6" s="8">
+      <c r="X6" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>1.0769794911921555</v>
       </c>
-      <c r="X6" s="8">
+      <c r="Y6" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant3]]/Table1[[#This Row],[Observed Non-Pregnant2]]</f>
         <v>1.1441717791411041</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Z6" s="8">
         <f>Table1[[#This Row],[Observed Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.78535769867095528</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="AA6" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.66697657497423035</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AB6" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant6]]/Table1[[#This Row],[Observed Pregnant5]]</f>
         <v>0.84926470588235292</v>
       </c>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1843,73 +2286,78 @@
         <v>59</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="13">
         <v>32</v>
       </c>
-      <c r="J7" s="9">
+      <c r="K7" s="9">
         <v>1</v>
       </c>
-      <c r="K7" s="9">
+      <c r="L7" s="9">
         <v>0.33333333333333298</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="8">
         <v>152</v>
       </c>
-      <c r="O7" s="8">
+      <c r="P7" s="8">
         <v>98.9</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8">
         <v>0.65</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="8">
         <v>134</v>
       </c>
-      <c r="R7" s="8">
+      <c r="S7" s="8">
         <v>63</v>
       </c>
-      <c r="S7" s="8">
+      <c r="T7" s="8">
         <v>0.47</v>
       </c>
-      <c r="T7" s="11">
+      <c r="U7" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="8">
+      <c r="W7" s="8">
         <f>Table1[[#This Row],[Observed Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.43887636102200439</v>
       </c>
-      <c r="W7" s="8">
+      <c r="X7" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.28555836911234372</v>
       </c>
-      <c r="X7" s="8">
+      <c r="Y7" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant3]]/Table1[[#This Row],[Observed Non-Pregnant2]]</f>
         <v>0.65065789473684232</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Z7" s="8">
         <f>Table1[[#This Row],[Observed Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.38690416037466185</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="AA7" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.18190270226569921</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AB7" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant6]]/Table1[[#This Row],[Observed Pregnant5]]</f>
         <v>0.47014925373134325</v>
       </c>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1932,73 +2380,78 @@
         <v>59</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="13">
         <v>37</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0.5</v>
       </c>
       <c r="K8" s="9">
         <v>0.5</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
         <v>256</v>
       </c>
-      <c r="O8" s="8">
+      <c r="P8" s="8">
         <v>241</v>
       </c>
-      <c r="P8" s="8">
+      <c r="Q8" s="8">
         <v>0.94</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="8">
         <v>121</v>
       </c>
-      <c r="R8" s="8">
+      <c r="S8" s="8">
         <v>132</v>
       </c>
-      <c r="S8" s="8">
+      <c r="T8" s="8">
         <v>1.0900000000000001</v>
       </c>
-      <c r="T8" s="11">
+      <c r="U8" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="V8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="8">
+      <c r="W8" s="8">
         <f>Table1[[#This Row],[Observed Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.95747824168097262</v>
       </c>
-      <c r="W8" s="8">
+      <c r="X8" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.90137600095747805</v>
       </c>
-      <c r="X8" s="8">
+      <c r="Y8" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant3]]/Table1[[#This Row],[Observed Non-Pregnant2]]</f>
         <v>0.94140624999999989</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Z8" s="8">
         <f>Table1[[#This Row],[Observed Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.45255807516952223</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="AA8" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.49369971836675147</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AB8" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant6]]/Table1[[#This Row],[Observed Pregnant5]]</f>
         <v>1.0909090909090908</v>
       </c>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2021,73 +2474,78 @@
         <v>59</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="13">
         <v>39</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0.33333333333333298</v>
       </c>
       <c r="K9" s="9">
         <v>0.33333333333333298</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="8">
+      <c r="O9" s="8">
         <v>234</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <v>242</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="8">
         <v>1.04</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="8">
         <v>164</v>
       </c>
-      <c r="R9" s="8">
+      <c r="S9" s="8">
         <v>158</v>
       </c>
-      <c r="S9" s="8">
+      <c r="T9" s="8">
         <v>0.97</v>
       </c>
-      <c r="T9" s="11">
+      <c r="U9" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="V9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="8">
+      <c r="W9" s="8">
         <f>Table1[[#This Row],[Observed Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.79762756928111256</v>
       </c>
-      <c r="W9" s="8">
+      <c r="X9" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.82489688788901383</v>
       </c>
-      <c r="X9" s="8">
+      <c r="Y9" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant3]]/Table1[[#This Row],[Observed Non-Pregnant2]]</f>
         <v>1.0341880341880341</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Z9" s="8">
         <f>Table1[[#This Row],[Observed Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.55902103146197635</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="AA9" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.53856904250605031</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AB9" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant6]]/Table1[[#This Row],[Observed Pregnant5]]</f>
         <v>0.96341463414634132</v>
       </c>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2110,73 +2568,78 @@
         <v>59</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="1">
         <v>15</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
       </c>
       <c r="K10" s="8">
         <v>1</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="8">
+      <c r="O10" s="8">
         <v>125</v>
       </c>
-      <c r="O10" s="8">
+      <c r="P10" s="8">
         <v>103</v>
       </c>
-      <c r="P10" s="8">
+      <c r="Q10" s="8">
         <v>0.82</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="8">
         <v>113</v>
       </c>
-      <c r="R10" s="8">
+      <c r="S10" s="8">
         <v>111</v>
       </c>
-      <c r="S10" s="8">
+      <c r="T10" s="8">
         <v>0.98</v>
       </c>
-      <c r="T10" s="11">
+      <c r="U10" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="V10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V10" s="8">
+      <c r="W10" s="8">
         <f>Table1[[#This Row],[Observed Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.40010626822484058</v>
       </c>
-      <c r="W10" s="8">
+      <c r="X10" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.32968756501726859</v>
       </c>
-      <c r="X10" s="8">
+      <c r="Y10" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant3]]/Table1[[#This Row],[Observed Non-Pregnant2]]</f>
         <v>0.82399999999999984</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Z10" s="8">
         <f>Table1[[#This Row],[Observed Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.36169606647525582</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="AA10" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>0.35529436618365839</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AB10" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant6]]/Table1[[#This Row],[Observed Pregnant5]]</f>
         <v>0.9823008849557523</v>
       </c>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2199,74 +2662,79 @@
         <v>59</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="13">
         <v>39</v>
       </c>
-      <c r="J11" s="9">
+      <c r="K11" s="9">
         <v>1</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L11" s="9">
         <f>10/24</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>2.33</v>
       </c>
-      <c r="O11" s="8">
+      <c r="P11" s="8">
         <v>2.25</v>
       </c>
-      <c r="P11" s="8">
+      <c r="Q11" s="8">
         <v>0.96</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="R11" s="8">
         <v>0.7</v>
       </c>
-      <c r="R11" s="8">
+      <c r="S11" s="8">
         <v>0.63</v>
       </c>
-      <c r="S11" s="8">
+      <c r="T11" s="8">
         <v>0.9</v>
       </c>
-      <c r="T11" s="11">
+      <c r="U11" s="11">
         <v>1E-3</v>
       </c>
-      <c r="U11" s="8" t="s">
+      <c r="V11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="8">
+      <c r="W11" s="8">
         <f>Table1[[#This Row],[Observed Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>8.1829037016225321</v>
       </c>
-      <c r="W11" s="8">
+      <c r="X11" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>7.9019456346140347</v>
       </c>
-      <c r="X11" s="8">
+      <c r="Y11" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant3]]/Table1[[#This Row],[Observed Non-Pregnant2]]</f>
         <v>0.96566523605150234</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Z11" s="8">
         <f>Table1[[#This Row],[Observed Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>2.4583830863243659</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="AA11" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>2.2125447776919294</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AB11" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant6]]/Table1[[#This Row],[Observed Pregnant5]]</f>
         <v>0.9</v>
       </c>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2289,70 +2757,3953 @@
         <v>59</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="13">
         <v>39</v>
-      </c>
-      <c r="J12" s="9">
-        <v>2</v>
       </c>
       <c r="K12" s="9">
         <v>2</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="9">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="8">
+      <c r="O12" s="8">
         <v>151</v>
       </c>
-      <c r="O12" s="8">
+      <c r="P12" s="8">
         <v>170</v>
       </c>
-      <c r="P12" s="8">
+      <c r="Q12" s="8">
         <v>1.1200000000000001</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="R12" s="8">
         <v>102</v>
       </c>
-      <c r="R12" s="8">
+      <c r="S12" s="8">
         <v>112</v>
       </c>
-      <c r="S12" s="8">
+      <c r="T12" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T12" s="11">
+      <c r="U12" s="11">
         <v>1E-3</v>
       </c>
-      <c r="U12" s="8" t="s">
+      <c r="V12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V12" s="8">
+      <c r="W12" s="8">
         <f>Table1[[#This Row],[Observed Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>882.2360887143891</v>
       </c>
-      <c r="W12" s="8">
+      <c r="X12" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>993.24592769169647</v>
       </c>
-      <c r="X12" s="8">
+      <c r="Y12" s="8">
         <f>Table1[[#This Row],[Predicted Non-Pregnant3]]/Table1[[#This Row],[Observed Non-Pregnant2]]</f>
         <v>1.1258278145695366</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Z12" s="8">
         <f>Table1[[#This Row],[Observed Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>595.9475566150179</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="AA12" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant]]*Table1[[#This Row],[Mass Conversion]]/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
         <v>654.37378765570588</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AB12" s="8">
         <f>Table1[[#This Row],[Predicted Pregnant6]]/Table1[[#This Row],[Observed Pregnant5]]</f>
         <v>1.0980392156862744</v>
+      </c>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="9">
+        <v>546.58000000000004</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="13">
+        <v>29.1</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.3333333</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="8">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8">
+        <v>111.11</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="11">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/Table1[[#This Row],[AVERAGE_MASS]]/Table1[[#This Row],[Mass Conversion]]</f>
+        <v>263.09048995572471</v>
+      </c>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/Table1[[#This Row],[AVERAGE_MASS]]/Table1[[#This Row],[Mass Conversion]]</f>
+        <v>203.28222767024039</v>
+      </c>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="9">
+        <v>454.51</v>
+      </c>
+      <c r="F14" s="4">
+        <v>500</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="13">
+        <v>24.5</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.3333333</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0.2083333</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="1">
+        <v>110</v>
+      </c>
+      <c r="R14" s="1">
+        <v>75.7</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="11">
+        <f t="shared" ref="U14:U44" si="0">1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>242.01887747244285</v>
+      </c>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>166.55299113330841</v>
+      </c>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="15">
+        <v>424.38600000000002</v>
+      </c>
+      <c r="F15" s="4">
+        <v>750</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="13">
+        <v>13</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.2083333</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.2083333</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="1">
+        <v>68</v>
+      </c>
+      <c r="R15" s="1">
+        <v>42</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>160.23148737234501</v>
+      </c>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>98.966506906448373</v>
+      </c>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="15">
+        <v>424.38600000000002</v>
+      </c>
+      <c r="F16" s="4">
+        <v>750</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="13">
+        <v>41</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.2083333</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0.2083333</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="1">
+        <v>68</v>
+      </c>
+      <c r="R16" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>160.23148737234501</v>
+      </c>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>110.04133029836046</v>
+      </c>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="9">
+        <v>349.4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>500</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="13">
+        <v>15</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.2083333</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.2083333</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="1">
+        <v>38.9</v>
+      </c>
+      <c r="R17" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W17" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>111.33371493989696</v>
+      </c>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>69.54779622209503</v>
+      </c>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="9">
+        <v>349.4</v>
+      </c>
+      <c r="F18" s="4">
+        <v>500</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="13">
+        <v>20</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.3333333</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.3333333</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="R18" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>91.299370349170005</v>
+      </c>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>72.409845449341745</v>
+      </c>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="9">
+        <v>349.4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>500</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="13">
+        <v>20</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.3333333</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0.3333333</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="R19" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>33.772180881511169</v>
+      </c>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>17.458500286204924</v>
+      </c>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="15">
+        <v>306.22899999999998</v>
+      </c>
+      <c r="F20" s="4">
+        <v>200</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="13">
+        <v>24</v>
+      </c>
+      <c r="K20" s="9">
+        <v>6</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="14">
+        <v>3.0630000000000002</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14">
+        <f>GEOMEAN(490.61/100, 416.27/50, 402.74/100, 489.77/50, 1014.8/50, 2202.99/150, 1032.63/200, 226.48/25)/1000*200</f>
+        <v>1.6594745266421449</v>
+      </c>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>10.002318526331603</v>
+      </c>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>5.4190639248475643</v>
+      </c>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="15">
+        <v>306.22899999999998</v>
+      </c>
+      <c r="F21" s="4">
+        <v>200</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="13">
+        <v>24</v>
+      </c>
+      <c r="K21" s="9">
+        <v>6</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14">
+        <f>GEOMEAN(42.6/100, 31.1/50, 40.5/100, 31.6/50, 66.4/50, 133.2/150, 73.4/200, 13.2/25)/1000*200</f>
+        <v>0.1187997111700811</v>
+      </c>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>0.54207798738852297</v>
+      </c>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>0.38794402610491202</v>
+      </c>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="15">
+        <v>306.22899999999998</v>
+      </c>
+      <c r="F22" s="4">
+        <v>200</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="13">
+        <v>32</v>
+      </c>
+      <c r="K22" s="9">
+        <v>6</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="14">
+        <v>3.0630000000000002</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14">
+        <f>GEOMEAN(1230.31/100, 362.4/50, 279.7/100, 816.51/50, 333/50, 1918.89/150)/1000*200</f>
+        <v>1.6765697347856834</v>
+      </c>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W22" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>10.002318526331603</v>
+      </c>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>5.4748888406574281</v>
+      </c>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD22" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="15">
+        <v>306.22899999999998</v>
+      </c>
+      <c r="F23" s="4">
+        <v>200</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="13">
+        <v>32</v>
+      </c>
+      <c r="K23" s="9">
+        <v>6</v>
+      </c>
+      <c r="L23" s="9">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14">
+        <f>GEOMEAN(89.7/100, 25.6/50, 31.5/100, 53.7/50, 60.6/50, 115.5/150)/1000*200</f>
+        <v>0.14496341998732901</v>
+      </c>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>0.54207798738852297</v>
+      </c>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>0.47338240332342468</v>
+      </c>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD23" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="9">
+        <v>225.21</v>
+      </c>
+      <c r="F24" s="4">
+        <v>400</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="13">
+        <v>36</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.3333333</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8">
+        <v>2.11</v>
+      </c>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W24" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>11.100750410727766</v>
+      </c>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>9.3690333466542324</v>
+      </c>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD24" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="9">
+        <v>225.21</v>
+      </c>
+      <c r="F25" s="4">
+        <v>400</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="13">
+        <v>36</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.3333333</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>2.619777096931752</v>
+      </c>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>2.7973891035033969</v>
+      </c>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD25" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="15">
+        <v>247.24799999999999</v>
+      </c>
+      <c r="F26" s="4">
+        <v>200</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="9">
+        <v>25.47</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="8">
+        <f>GEOMEAN(10.33, 9.67)</f>
+        <v>9.9945535167910329</v>
+      </c>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>40.423192570985542</v>
+      </c>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>30.333915744515625</v>
+      </c>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD26" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="15">
+        <v>247.24799999999999</v>
+      </c>
+      <c r="F27" s="4">
+        <v>200</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="9">
+        <v>25.47</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" s="8">
+        <f>GEOMEAN(1.64, 2.11)</f>
+        <v>1.8602150413325873</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>7.5236808440617811</v>
+      </c>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>4.812981298129813</v>
+      </c>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD27" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="15">
+        <v>247.24799999999999</v>
+      </c>
+      <c r="F28" s="4">
+        <v>200</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="9">
+        <v>32.26</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="8">
+        <f>GEOMEAN(10.33, 9.67)</f>
+        <v>9.9945535167910329</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8">
+        <v>6.45</v>
+      </c>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W28" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>40.423192570985542</v>
+      </c>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>26.087167540283442</v>
+      </c>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD28" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="15">
+        <v>247.24799999999999</v>
+      </c>
+      <c r="F29" s="4">
+        <v>200</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="9">
+        <v>32.26</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" s="8">
+        <f>GEOMEAN(1.64, 2.11)</f>
+        <v>1.8602150413325873</v>
+      </c>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8">
+        <v>1.32</v>
+      </c>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>7.5236808440617811</v>
+      </c>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>5.3387691710347509</v>
+      </c>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD29" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="15">
+        <v>247.24799999999999</v>
+      </c>
+      <c r="F30" s="4">
+        <v>200</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="9">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="8">
+        <f>GEOMEAN(10.33, 9.67)</f>
+        <v>9.9945535167910329</v>
+      </c>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W30" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>40.423192570985542</v>
+      </c>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>16.784766711965315</v>
+      </c>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD30" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="15">
+        <v>247.24799999999999</v>
+      </c>
+      <c r="F31" s="4">
+        <v>200</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="9">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O31" s="8">
+        <f>GEOMEAN(1.64, 2.11)</f>
+        <v>1.8602150413325873</v>
+      </c>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W31" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>7.5236808440617811</v>
+      </c>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>2.6693845855173755</v>
+      </c>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD31" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="15">
+        <v>247.24799999999999</v>
+      </c>
+      <c r="F32" s="4">
+        <v>200</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="9">
+        <v>33</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="8">
+        <f>GEOMEAN(10.33, 9.67)</f>
+        <v>9.9945535167910329</v>
+      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8">
+        <v>8</v>
+      </c>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W32" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>40.423192570985542</v>
+      </c>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>32.356176794150002</v>
+      </c>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD32" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="15">
+        <v>247.24799999999999</v>
+      </c>
+      <c r="F33" s="4">
+        <v>200</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="9">
+        <v>33</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O33" s="8">
+        <f>GEOMEAN(1.64, 2.11)</f>
+        <v>1.8602150413325873</v>
+      </c>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>7.5236808440617811</v>
+      </c>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>5.6623309389762504</v>
+      </c>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD33" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="9">
+        <v>444.42</v>
+      </c>
+      <c r="F34" s="4">
+        <v>400</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="8">
+        <f>GEOMEAN(6.44, 8.24, 11)</f>
+        <v>8.3573499532982627</v>
+      </c>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W34" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>18.805071673863154</v>
+      </c>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>8.7754826515458344</v>
+      </c>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD34" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="9">
+        <v>444.42</v>
+      </c>
+      <c r="F35" s="4">
+        <v>400</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O35" s="8">
+        <f>GEOMEAN(0.74, 2.03, 2.77)</f>
+        <v>1.6084312742191913</v>
+      </c>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>3.6191694213113523</v>
+      </c>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>1.5075829170604382</v>
+      </c>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD35" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="9">
+        <v>444.42</v>
+      </c>
+      <c r="F36" s="4">
+        <v>400</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="13">
+        <v>34</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="8">
+        <f>GEOMEAN(6.44, 8.24, 11)</f>
+        <v>8.3573499532982627</v>
+      </c>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W36" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>18.805071673863154</v>
+      </c>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>9.9905494802214125</v>
+      </c>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD36" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="9">
+        <v>444.42</v>
+      </c>
+      <c r="F37" s="4">
+        <v>400</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="13">
+        <v>34</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O37" s="8">
+        <f>GEOMEAN(0.74, 2.03, 2.77)</f>
+        <v>1.6084312742191913</v>
+      </c>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W37" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>3.6191694213113523</v>
+      </c>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>1.9126051932856307</v>
+      </c>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD37" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="9">
+        <v>419.38</v>
+      </c>
+      <c r="F38" s="4">
+        <v>50</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="K38" s="9">
+        <v>1</v>
+      </c>
+      <c r="L38" s="9">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" s="8">
+        <f>GEOMEAN(55.4, 52.5, 71.9, 71.9, 51.62)</f>
+        <v>59.977584300057266</v>
+      </c>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8">
+        <v>42.38</v>
+      </c>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W38" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>143.01488936062108</v>
+      </c>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>101.05393676379417</v>
+      </c>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD38" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="9">
+        <v>419.38</v>
+      </c>
+      <c r="F39" s="4">
+        <v>50</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="K39" s="9">
+        <v>1</v>
+      </c>
+      <c r="L39" s="9">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O39" s="8">
+        <f>GEOMEAN(3.83, 3.43, 5.35, 4.78, 3.81)</f>
+        <v>4.1825381374854427</v>
+      </c>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8">
+        <v>3</v>
+      </c>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W39" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>9.9731464006043282</v>
+      </c>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>7.1534169488292241</v>
+      </c>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD39" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="9">
+        <v>419.38</v>
+      </c>
+      <c r="F40" s="4">
+        <v>50</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="13">
+        <v>33</v>
+      </c>
+      <c r="K40" s="9">
+        <v>1</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="8">
+        <f>GEOMEAN(55.4, 52.5, 71.9, 71.9, 51.62)</f>
+        <v>59.977584300057266</v>
+      </c>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8">
+        <v>47.59</v>
+      </c>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W40" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>143.01488936062108</v>
+      </c>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>113.47703753159426</v>
+      </c>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD40" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="9">
+        <v>419.38</v>
+      </c>
+      <c r="F41" s="4">
+        <v>50</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" s="13">
+        <v>33</v>
+      </c>
+      <c r="K41" s="9">
+        <v>1</v>
+      </c>
+      <c r="L41" s="9">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O41" s="8">
+        <f>GEOMEAN(3.83, 3.43, 5.35, 4.78, 3.81)</f>
+        <v>4.1825381374854427</v>
+      </c>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8">
+        <v>3</v>
+      </c>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W41" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>9.9731464006043282</v>
+      </c>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>7.1534169488292241</v>
+      </c>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD41" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="15">
+        <v>151.16300000000001</v>
+      </c>
+      <c r="F42" s="4">
+        <v>650</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" s="13">
+        <v>10</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0.1666667</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0.1666667</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42" s="8">
+        <v>24.45</v>
+      </c>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8">
+        <v>18.59</v>
+      </c>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W42" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>161.74592989025089</v>
+      </c>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>122.97982972023574</v>
+      </c>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD42" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="15">
+        <v>151.16300000000001</v>
+      </c>
+      <c r="F43" s="4">
+        <v>650</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="13">
+        <v>10</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0.1666667</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0.1666667</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O43" s="8">
+        <v>9.92</v>
+      </c>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W43" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>65.624524519889121</v>
+      </c>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>64.830679465213052</v>
+      </c>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD43" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="15">
+        <v>151.16300000000001</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44" s="13">
+        <v>30.9</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="L44" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44" s="8">
+        <v>101.71</v>
+      </c>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8">
+        <v>74.3</v>
+      </c>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W44" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>672.84983759253248</v>
+      </c>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>491.52239635360496</v>
+      </c>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD44" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="15">
+        <v>315.67500000000001</v>
+      </c>
+      <c r="F45" s="4">
+        <v>400</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="13">
+        <v>28</v>
+      </c>
+      <c r="K45" s="9">
+        <v>1</v>
+      </c>
+      <c r="L45" s="9">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" s="8">
+        <v>49.2</v>
+      </c>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8">
+        <v>39.941000000000003</v>
+      </c>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="11">
+        <f t="shared" ref="U45:U54" si="1">1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="V45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W45" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>155.85649798051793</v>
+      </c>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>126.52569889918429</v>
+      </c>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD45" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="15">
+        <v>315.67500000000001</v>
+      </c>
+      <c r="F46" s="4">
+        <v>400</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" s="13">
+        <v>28</v>
+      </c>
+      <c r="K46" s="9">
+        <v>1</v>
+      </c>
+      <c r="L46" s="9">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O46" s="8">
+        <v>2.52</v>
+      </c>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8">
+        <v>2.7509999999999999</v>
+      </c>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="11">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V46" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W46" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>7.9828937990021389</v>
+      </c>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>8.714659063910668</v>
+      </c>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD46" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="15">
+        <v>287.21300000000002</v>
+      </c>
+      <c r="F47" s="4">
+        <v>300</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="13">
+        <v>33</v>
+      </c>
+      <c r="K47" s="9">
+        <v>1</v>
+      </c>
+      <c r="L47" s="9">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="11">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W47" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>10.097035997674199</v>
+      </c>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>8.7043413773053437</v>
+      </c>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD47" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="15">
+        <v>287.21300000000002</v>
+      </c>
+      <c r="F48" s="4">
+        <v>300</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="13">
+        <v>33</v>
+      </c>
+      <c r="K48" s="9">
+        <v>1</v>
+      </c>
+      <c r="L48" s="9">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O48" s="14">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="11">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W48" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>0.93310539564713291</v>
+      </c>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>0.97488623425819876</v>
+      </c>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD48" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="15">
+        <v>266.298</v>
+      </c>
+      <c r="F49" s="4">
+        <v>200</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J49" s="13">
+        <v>39</v>
+      </c>
+      <c r="K49" s="9">
+        <v>7</v>
+      </c>
+      <c r="L49" s="9">
+        <v>4</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49" s="8">
+        <v>186.91589999999999</v>
+      </c>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8">
+        <v>140.8451</v>
+      </c>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="11">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W49" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>701.90500867449248</v>
+      </c>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>528.90032970581831</v>
+      </c>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD49" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="9">
+        <v>424.98</v>
+      </c>
+      <c r="F50" s="4">
+        <v>600</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="13">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0.66666669999999995</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0.4166667</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O50" s="8">
+        <v>31.8</v>
+      </c>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="1">
+        <f>81.4/814*600</f>
+        <v>60</v>
+      </c>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="11">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W50" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>74.827050684738111</v>
+      </c>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>141.18311449950585</v>
+      </c>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD50" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="17">
+        <v>749</v>
+      </c>
+      <c r="F51" s="4">
+        <v>500</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" s="13">
+        <v>39.1</v>
+      </c>
+      <c r="K51" s="9">
+        <v>3</v>
+      </c>
+      <c r="L51" s="9">
+        <v>0.4166667</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" s="8">
+        <v>9.08</v>
+      </c>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8">
+        <f>500/73.2</f>
+        <v>6.8306010928961749</v>
+      </c>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="11">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W51" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>12.12283044058745</v>
+      </c>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>9.1196276273647197</v>
+      </c>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD51" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="17">
+        <v>749</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" s="13">
+        <v>21</v>
+      </c>
+      <c r="K52" s="9">
+        <v>1</v>
+      </c>
+      <c r="L52" s="9">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O52" s="8">
+        <v>31.780999999999999</v>
+      </c>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8">
+        <v>28.713000000000001</v>
+      </c>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="11">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W52" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>42.431241655540717</v>
+      </c>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>38.3351134846462</v>
+      </c>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD52" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="13">
+        <v>462.5</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J53" s="13">
+        <v>23</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O53" s="8">
+        <v>31.86</v>
+      </c>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8">
+        <v>18.21</v>
+      </c>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="11">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W53" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>68.88648648648649</v>
+      </c>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>39.372972972972974</v>
+      </c>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD53" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="13">
+        <v>462.5</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J54" s="13">
+        <v>23</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O54" s="8">
+        <v>9.56</v>
+      </c>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8">
+        <v>5.31</v>
+      </c>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="11">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V54" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W54" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>20.670270270270272</v>
+      </c>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>11.481081081081081</v>
+      </c>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD54" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="15">
+        <v>780.93799999999999</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="K55" s="9">
+        <v>2</v>
+      </c>
+      <c r="L55" s="9">
+        <v>2</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O55" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="11">
+        <v>1</v>
+      </c>
+      <c r="V55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W55" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>11.908755880748537</v>
+      </c>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>9.3477331106950867</v>
+      </c>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD55" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="13">
+        <v>780.93799999999999</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="K56" s="9">
+        <v>2</v>
+      </c>
+      <c r="L56" s="9">
+        <v>2</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O56" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="11">
+        <v>1</v>
+      </c>
+      <c r="V56" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W56" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>1.4085625235293968</v>
+      </c>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>1.0244091080213795</v>
+      </c>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD56" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="13">
+        <v>321.2</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J57" s="13">
+        <v>38.409999999999997</v>
+      </c>
+      <c r="K57" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="L57" s="9">
+        <v>2</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O57" s="8">
+        <v>560</v>
+      </c>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8">
+        <v>175.25</v>
+      </c>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="11">
+        <v>1</v>
+      </c>
+      <c r="V57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W57" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>1743.4620174346205</v>
+      </c>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>545.61021170610206</v>
+      </c>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD57" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="13">
+        <v>321.2</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J58" s="13">
+        <v>38.409999999999997</v>
+      </c>
+      <c r="K58" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="L58" s="9">
+        <v>2</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O58" s="8">
+        <v>26.7</v>
+      </c>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8">
+        <v>12.96</v>
+      </c>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="11">
+        <v>1</v>
+      </c>
+      <c r="V58" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W58" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>83.125778331257777</v>
+      </c>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>40.348692403486929</v>
+      </c>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD58" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="13">
+        <v>365.4</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J59" s="13">
+        <v>35.1</v>
+      </c>
+      <c r="K59" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="L59" s="9">
+        <v>0.1666667</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O59" s="8">
+        <f>GEOMEAN(12.1/250, 24/500, 33.9/500, 54.4/1000, 42.8/1000)*2000</f>
+        <v>103.25278819280904</v>
+      </c>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8">
+        <v>87</v>
+      </c>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="11">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="V59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W59" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>282.57468033062133</v>
+      </c>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>238.0952380952381</v>
+      </c>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD59" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="15">
+        <v>272.36239999999998</v>
+      </c>
+      <c r="F60" s="4">
+        <v>100</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J60" s="13">
+        <v>34</v>
+      </c>
+      <c r="K60" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="L60" s="9">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O60" s="8">
+        <v>15.3</v>
+      </c>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="11">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="V60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W60" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>56.175154867191658</v>
+      </c>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>34.145682370253759</v>
+      </c>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD60" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="15">
+        <v>272.36239999999998</v>
+      </c>
+      <c r="F61" s="4">
+        <v>100</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J61" s="13">
+        <v>34</v>
+      </c>
+      <c r="K61" s="9">
+        <v>2</v>
+      </c>
+      <c r="L61" s="9">
+        <v>2</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O61" s="8">
+        <v>55.8</v>
+      </c>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8">
+        <v>31.1</v>
+      </c>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="11">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="V61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W61" s="8">
+        <f>Table1[[#This Row],[Observed Non-Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>204.87409422152251</v>
+      </c>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8">
+        <f>Table1[[#This Row],[Observed Pregnant]]/1000/Table1[[#This Row],[AVERAGE_MASS]]*1000000</f>
+        <v>114.18609910912815</v>
+      </c>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD61" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2369,11 +6720,66 @@
     <hyperlink ref="B10" r:id="rId9" xr:uid="{7EA9BC9F-7E0F-4700-9B5C-68F7EB68C99B}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{121B9A42-C0EE-46A2-9FF8-C6B41327B41C}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{F1E6E80A-7F64-4854-B5C6-106D3C5246B7}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{8B26571F-792C-4A67-BE41-2D0868CDDABB}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{A75BBADF-C7B7-4AE1-9715-77ECC8FDD4EB}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{AFEEB2E5-1893-4359-91F8-6F9984FAD7B6}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{C1F628A1-F03D-4C9D-B535-69DB59318A70}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{A3198111-D161-40D3-93D9-E6A7C18E3886}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{51167CA6-C1F1-44ED-AD97-16AB68F921B9}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{55DF6431-D2C6-49C3-A1F2-2AF77C213E31}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{CAE01184-495C-4679-B338-DA84FDF874C1}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{B3FDCADF-BDD6-4E28-ACF7-A6BE7BC5E716}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{EFF1892C-E49E-41A2-A023-49B5ADDCF8FD}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{CFAA88F5-0C40-4121-8064-5590B57F8551}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{4FC77F84-7760-48A3-A593-8958E025A282}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{6A99D504-F1E5-42C6-87A4-36E3FFB7ECB0}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{76E4588A-8078-4570-950F-66E0F963CB61}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{E3BB2018-D147-4CCE-9BD2-D50EDF8E8A86}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{D1961CFF-0C88-4DE7-9F57-DC92FB5E6CC8}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{B5364225-8E93-4673-9A3D-7E3D984456F9}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{90F9D39A-399A-46E5-B86F-B2492CD47920}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{E199B199-1FFF-4312-86D1-2FD17B636216}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{59CA9914-4740-4653-A334-A967B951CA75}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{91A4D34E-4C09-4901-8546-4976C5E43CA8}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{72F8CE2B-EECF-4718-B450-E28CC3403BB2}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{48EBB7B9-0C8B-464B-BD3D-D04957D7D754}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{8CF88CE2-25EB-4A7D-A6DB-87BAF0EE056C}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{418FEC77-1847-402B-AB31-30A3F8D0E73E}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{26DBF672-CF48-47E3-A09C-2B8CE012485B}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{975CEE4E-05E7-4D07-A2BA-0A11B594930C}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{46F4F74F-C411-4F8B-BC0A-EF391D51F570}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{54D21E6C-3976-48F3-A318-8B906EB0B7AB}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{3B338C47-685B-43B9-AEF8-F4F59090483A}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{94153E1F-3551-4832-B41A-EC759DAEF2B9}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{0F0E2B8E-9A56-4698-8A3A-5961935CE321}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{E1E0DFC0-DFAD-40B6-B504-3BB576F34779}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{72285C7F-47BD-4A46-A85B-8799031BAB37}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{861C2A54-F4EC-4A3C-B16E-6AFE91E338C4}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{46EA1B2E-C821-4BC4-ABA5-E761B187788D}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{21DD1F2C-4269-49A5-9EE6-A25155E10297}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{FBE779DC-DCE1-4D31-9465-D21B739DD853}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{16F637FC-83A3-4205-AA52-45580F968331}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{691BF6DD-E67E-487B-A144-122325BDA54F}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{F858C55B-1F07-47D0-9957-FB8F7E4AF0CE}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{7520E1BC-9852-4159-8FB1-5DD23046C64E}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{7E7AD114-C4A6-42C7-AF91-DD15AE0A33C6}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{2499FB29-07D4-4F36-910D-6DDEE6A74411}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{B18119A3-3A20-4989-850B-E97BE4205BDE}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{4E3846A2-8DE9-4B11-B1EE-2F396CB4487E}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{585B9344-F046-4356-B172-6A5775153AFF}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{585738EB-5BC8-4537-9815-66C87053FBE5}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{E5891A4E-4AF9-4DFC-B596-5E9C69F4EF41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
+  <ignoredErrors>
+    <ignoredError sqref="U33:U55 U13:U32 U56:U61 W13 Z13" calculatedColumn="1"/>
+    <ignoredError sqref="R21 O27:O32 O39:O40 O35:O36" formula="1"/>
+    <ignoredError sqref="L11" unlockedFormula="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId62"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId63"/>
   </tableParts>
 </worksheet>
 </file>